--- a/biology/Zoologie/Hypoptopomatinae/Hypoptopomatinae.xlsx
+++ b/biology/Zoologie/Hypoptopomatinae/Hypoptopomatinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypoptopomatinae est une sous-famille des poissons-chat (ordre des Siluriformes) de la famille Loricariidae.
 Hypoptopomatinae est un assemblage monophylétique au sein de la famille Loricariidae. Il est composé de 17 genres et environ 80 espèces. Cette sous-famille représente environ un dixième de tous les loricariidés.
@@ -514,9 +526,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (28 octobre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (28 octobre 2017) :
 genre Acestridium Haseman, 1911
 genre Corumbataia Britski, 1997
 genre Epactionotus Reis &amp; Schaefer, 1998
